--- a/data/trans_orig/CALVIDA_SF12_MCB-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CALVIDA_SF12_MCB-Edad-trans_orig.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>46,71</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>44,54</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>45,76</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>45,18; 47,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,99; 45,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,76; 46,58</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>46,35</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>44,51</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>45,28</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>45,16; 47,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,64; 45,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,34; 45,89</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>46,19</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>46,85</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>46,52</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>45,45; 46,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>46,29; 47,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>46,07; 46,98</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>46,77</t>
+          <t>46,36</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>45,56</t>
+          <t>45,85</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>46,18</t>
+          <t>46,16</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>45,89; 47,42</t>
+          <t>45,67; 46,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>44,6; 46,43</t>
+          <t>45,07; 46,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>45,58; 46,71</t>
+          <t>45,71; 46,65</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>46,15</t>
+          <t>46,16</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>45,25</t>
+          <t>45,3</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>45,67</t>
+          <t>45,74</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>45,52; 46,62</t>
+          <t>45,44; 46,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>44,56; 45,82</t>
+          <t>44,51; 45,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>45,2; 46,06</t>
+          <t>45,24; 46,22</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>46,02</t>
+          <t>45,83</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>47,01</t>
+          <t>46,55</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>46,54</t>
+          <t>46,32</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>45,43; 46,49</t>
+          <t>45,06; 46,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>46,32; 48,95</t>
+          <t>45,1; 47,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>46,13; 47,62</t>
+          <t>45,37; 47,37</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>46,15</t>
+          <t>46,24</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>45,79</t>
+          <t>44,04</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>45,96</t>
+          <t>44,91</t>
         </is>
       </c>
     </row>
@@ -879,24 +879,24 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>45,61; 46,58</t>
+          <t>45,27; 47,12</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>45,19; 46,25</t>
+          <t>43,12; 44,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>45,57; 46,27</t>
+          <t>44,24; 45,51</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>46,17</t>
+          <t>46,28</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>45,24</t>
+          <t>45,57</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>45,71</t>
+          <t>45,91</t>
         </is>
       </c>
     </row>
@@ -929,185 +929,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>45,61; 46,69</t>
+          <t>45,97; 46,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>44,74; 45,69</t>
+          <t>45,16; 46,26</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>45,32; 46,07</t>
+          <t>45,64; 46,26</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>46,03</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>45,88</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>45,94</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>45,41; 46,58</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>45,06; 47,07</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>45,47; 46,7</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>46,61</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>44,44</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>45,29</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>45,88; 47,17</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>43,75; 45,04</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>44,81; 45,74</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>46,23</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>45,65</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>45,92</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>46,02; 46,43</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>45,39; 46,02</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>45,74; 46,11</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_orig/CALVIDA_SF12_MCB-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CALVIDA_SF12_MCB-Edad-trans_orig.xlsx
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Calidad de vida asociada a la salud (SF12 mental)</t>
+          <t>Calidad de vida asociada a la salud (SF12 mental) (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CALVIDA_SF12_MCB-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CALVIDA_SF12_MCB-Edad-trans_orig.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>45,18; 47,59</t>
+          <t>45,35; 47,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>42,99; 45,61</t>
+          <t>43,04; 45,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>44,76; 46,58</t>
+          <t>44,68; 46,52</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>45,16; 47,12</t>
+          <t>45,35; 47,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>43,64; 45,52</t>
+          <t>43,55; 45,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>44,34; 45,89</t>
+          <t>44,36; 45,94</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>45,45; 46,83</t>
+          <t>45,45; 46,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>46,29; 47,38</t>
+          <t>46,27; 47,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>46,07; 46,98</t>
+          <t>46,05; 46,92</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>45,67; 46,94</t>
+          <t>45,69; 46,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>45,07; 46,42</t>
+          <t>45,08; 46,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>45,71; 46,65</t>
+          <t>45,63; 46,64</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>45,44; 46,85</t>
+          <t>45,31; 46,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>44,51; 45,89</t>
+          <t>44,58; 45,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>45,24; 46,22</t>
+          <t>45,24; 46,18</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>45,06; 46,66</t>
+          <t>45,0; 46,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>45,1; 47,59</t>
+          <t>45,0; 47,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>45,37; 47,37</t>
+          <t>45,33; 47,39</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>45,27; 47,12</t>
+          <t>45,27; 47,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>43,12; 44,88</t>
+          <t>43,13; 44,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>44,24; 45,51</t>
+          <t>44,25; 45,52</t>
         </is>
       </c>
     </row>
@@ -929,12 +929,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>45,97; 46,58</t>
+          <t>45,97; 46,59</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>45,16; 46,26</t>
+          <t>45,15; 46,21</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">

--- a/data/trans_orig/CALVIDA_SF12_MCB-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CALVIDA_SF12_MCB-Edad-trans_orig.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>46,71</t>
+          <t>46,3</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>44,54</t>
+          <t>44,9</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>45,76</t>
+          <t>45,63</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>45,35; 47,67</t>
+          <t>45,07; 47,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>43,04; 45,6</t>
+          <t>43,65; 45,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>44,68; 46,52</t>
+          <t>44,72; 46,25</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>46,35</t>
+          <t>46,11</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>44,51</t>
+          <t>44,96</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>45,28</t>
+          <t>45,51</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>45,35; 47,13</t>
+          <t>45,16; 46,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>43,55; 45,46</t>
+          <t>44,03; 45,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>44,36; 45,94</t>
+          <t>44,85; 46,08</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>46,19</t>
+          <t>46,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>46,85</t>
+          <t>46,67</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>46,52</t>
+          <t>46,44</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>45,45; 46,89</t>
+          <t>45,49; 46,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>46,27; 47,42</t>
+          <t>46,14; 47,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>46,05; 46,92</t>
+          <t>45,94; 46,81</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>46,36</t>
+          <t>45,98</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>45,85</t>
+          <t>45,98</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>46,16</t>
+          <t>45,98</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>45,69; 46,92</t>
+          <t>45,34; 46,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>45,08; 46,4</t>
+          <t>45,48; 46,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>45,63; 46,64</t>
+          <t>45,58; 46,35</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>46,16</t>
+          <t>46,19</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>45,3</t>
+          <t>45,22</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>45,74</t>
+          <t>45,71</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>45,31; 46,74</t>
+          <t>45,42; 46,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>44,58; 45,95</t>
+          <t>44,46; 45,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>45,24; 46,18</t>
+          <t>45,22; 46,15</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>45,83</t>
+          <t>45,75</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>46,55</t>
+          <t>45,05</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>46,32</t>
+          <t>45,37</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>45,0; 46,51</t>
+          <t>44,95; 46,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>45,0; 47,71</t>
+          <t>44,28; 45,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>45,33; 47,39</t>
+          <t>44,8; 45,95</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>46,24</t>
+          <t>46,17</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>44,04</t>
+          <t>43,94</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>44,91</t>
+          <t>44,81</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>45,27; 47,08</t>
+          <t>45,15; 47,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>43,13; 44,91</t>
+          <t>43,03; 44,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>44,25; 45,52</t>
+          <t>44,12; 45,41</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>46,28</t>
+          <t>46,1</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>45,57</t>
+          <t>45,38</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>45,91</t>
+          <t>45,73</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>45,97; 46,59</t>
+          <t>45,82; 46,38</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>45,15; 46,21</t>
+          <t>45,11; 45,66</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>45,64; 46,26</t>
+          <t>45,51; 45,92</t>
         </is>
       </c>
     </row>
